--- a/tests/indicators/e-k/Epma/Epma.Calc.xlsx
+++ b/tests/indicators/e-k/Epma/Epma.Calc.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC917F0-3481-4670-BC53-FA2CCDC01F2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE3E107-668E-42B5-84E9-2D1B524DF37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23550" yWindow="2130" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Endpoint Moving Average" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>date</t>
   </si>
@@ -47,9 +56,6 @@
       </rPr>
       <t>2</t>
     </r>
-  </si>
-  <si>
-    <t>output</t>
   </si>
   <si>
     <t>stdev</t>
@@ -2374,7 +2380,7 @@
   <dimension ref="A1:K503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2387,6 +2393,7 @@
     <col min="6" max="6" width="8" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -2411,19 +2418,17 @@
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="I1" s="12"/>
       <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
